--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15345" windowHeight="25575"/>
+    <workbookView windowWidth="16425" windowHeight="27495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Topic</t>
   </si>
@@ -134,16 +134,64 @@
 1:立即关机</t>
   </si>
   <si>
+    <t>settings/no_sleep</t>
+  </si>
+  <si>
+    <t>下次上电后保持上电状态
+0:无效
+1:有效</t>
+  </si>
+  <si>
+    <t>state/connect_status</t>
+  </si>
+  <si>
+    <t>device-&gt;server</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接状态(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要进行遗嘱消息配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+0:未连接
+1:已连接
+</t>
+    </r>
+  </si>
+  <si>
     <t>state/power</t>
-  </si>
-  <si>
-    <t>device-&gt;server</t>
   </si>
   <si>
     <t>电源状态
 0:无状态
 1:usb供电
-2:电池供电</t>
+2:电池供电
+3:电压过低
+4:异常</t>
   </si>
   <si>
     <t>state/battery_value</t>
@@ -778,14 +826,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -797,7 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1346,7 +1391,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
@@ -1378,7 +1423,7 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1398,7 +1443,7 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1418,7 +1463,7 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1455,7 +1500,7 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1469,10 +1514,10 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1486,45 +1531,83 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="2:6">
-      <c r="B11" t="s">
+    <row r="10" ht="40.5" spans="2:6">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="4" t="s">
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="54" spans="2:6">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+    <row r="13" ht="81" spans="2:6">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="27495"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Topic</t>
   </si>
@@ -198,6 +198,19 @@
   </si>
   <si>
     <t>电池电量百分比</t>
+  </si>
+  <si>
+    <t>config/angle</t>
+  </si>
+  <si>
+    <t>舵机转动角度
+-90°~+90°</t>
+  </si>
+  <si>
+    <t>config/save_angle</t>
+  </si>
+  <si>
+    <t>保存当前舵机角度</t>
   </si>
 </sst>
 </file>
@@ -826,7 +839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +856,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1370,10 +1386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1610,6 +1626,40 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" ht="27" spans="2:6">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="16425" windowHeight="27495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Topic</t>
   </si>
@@ -44,105 +44,37 @@
     <t>说明</t>
   </si>
   <si>
-    <t>settings/start_interval</t>
+    <t>/settings/wakeup_interval</t>
   </si>
   <si>
     <t>app-&gt;server</t>
   </si>
   <si>
-    <t>开机间隔，单位:分钟
-0:不执行
-&gt;0:开机间隔</t>
-  </si>
-  <si>
-    <t>settings/power_on_time</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开机时间(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>该设置与1互斥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>settings/power_on_times</t>
-  </si>
-  <si>
-    <t>开机次数
-0:不执行
-&gt;0:执行次数
--1:始终执行</t>
-  </si>
-  <si>
-    <t>settings/pwer_off_time</t>
-  </si>
-  <si>
-    <t>关机时间</t>
-  </si>
-  <si>
-    <t>settings/power_off_times</t>
-  </si>
-  <si>
-    <t>关机次数
-0:不执行
-&gt;0:执行次数
--1:始终执行</t>
-  </si>
-  <si>
-    <t>settings/power_on_immediately</t>
+    <t>唤醒间隔，单位:分钟
+0:始终唤醒
+&gt;0:唤醒间隔</t>
+  </si>
+  <si>
+    <t>/settings/wakeup_duration</t>
+  </si>
+  <si>
+    <t>唤醒时长</t>
+  </si>
+  <si>
+    <t>/settings/power_on_off</t>
   </si>
   <si>
     <t>app-&gt;server
 device-&gt;server</t>
   </si>
   <si>
-    <t>立即开机标志
+    <t>立即开机/关机
 0:不执行
-1:下次上线后立即开机</t>
-  </si>
-  <si>
-    <t>settings/power_off_immediately</t>
-  </si>
-  <si>
-    <t>立即关机标志
-0:不执行
-1:立即关机</t>
-  </si>
-  <si>
-    <t>settings/no_sleep</t>
-  </si>
-  <si>
-    <t>下次上电后保持上电状态
-0:无效
-1:有效</t>
-  </si>
-  <si>
-    <t>state/connect_status</t>
+1:下次上线后立即开机
+2:立即关机</t>
+  </si>
+  <si>
+    <t>/state/connect_status</t>
   </si>
   <si>
     <t>device-&gt;server</t>
@@ -183,7 +115,7 @@
     </r>
   </si>
   <si>
-    <t>state/power</t>
+    <t>/state/power</t>
   </si>
   <si>
     <t>电源状态
@@ -194,20 +126,14 @@
 4:异常</t>
   </si>
   <si>
-    <t>state/battery_value</t>
-  </si>
-  <si>
-    <t>电池电量百分比</t>
-  </si>
-  <si>
-    <t>config/angle</t>
+    <t>/config/angle</t>
   </si>
   <si>
     <t>舵机转动角度
 -90°~+90°</t>
   </si>
   <si>
-    <t>config/save_angle</t>
+    <t>/config/save_angle</t>
   </si>
   <si>
     <t>保存当前舵机角度</t>
@@ -839,7 +765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,9 +782,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1463,10 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:6">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="5" ht="54" spans="2:6">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1476,36 +1396,33 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
+    <row r="6" ht="54" spans="2:6">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    <row r="7" ht="81" spans="2:6">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1514,150 +1431,44 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" ht="40.5" spans="2:6">
+    <row r="8" ht="27" spans="2:6">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="2:6">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="5:6">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="54" spans="2:6">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="81" spans="2:6">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="2:6">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="27495"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Topic</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>保存当前舵机角度</t>
+  </si>
+  <si>
+    <t>/config/password</t>
+  </si>
+  <si>
+    <t>开机密码</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +788,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1471,6 +1480,23 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" ht="27" spans="2:6">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -27,27 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
+  </si>
   <si>
     <t>Topic</t>
   </si>
   <si>
+    <t>解释</t>
+  </si>
+  <si>
     <t>QOS</t>
   </si>
   <si>
-    <t>retained</t>
-  </si>
-  <si>
-    <t>方向</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>说明</t>
   </si>
   <si>
-    <t>/settings/wakeup_interval</t>
-  </si>
-  <si>
-    <t>app-&gt;server</t>
+    <t>/settings/app_config/retained</t>
+  </si>
+  <si>
+    <t>记录app端发送的保留设置数据</t>
+  </si>
+  <si>
+    <t>"wakeup_interval"</t>
+  </si>
+  <si>
+    <t>"number"</t>
   </si>
   <si>
     <t>唤醒间隔，单位:分钟
@@ -55,17 +67,7 @@
 &gt;0:唤醒间隔</t>
   </si>
   <si>
-    <t>/settings/wakeup_duration</t>
-  </si>
-  <si>
-    <t>唤醒时长</t>
-  </si>
-  <si>
-    <t>/settings/power_on_off</t>
-  </si>
-  <si>
-    <t>app-&gt;server
-device-&gt;server</t>
+    <t>"power_on_off"</t>
   </si>
   <si>
     <t>立即开机/关机
@@ -74,48 +76,51 @@
 2:立即关机</t>
   </si>
   <si>
-    <t>/state/connect_status</t>
-  </si>
-  <si>
-    <t>device-&gt;server</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>连接状态(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要进行遗嘱消息配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-0:未连接
-1:已连接
-</t>
-    </r>
-  </si>
-  <si>
-    <t>/state/power</t>
+    <t>"pc_password"</t>
+  </si>
+  <si>
+    <t>电脑开机密码</t>
+  </si>
+  <si>
+    <t>/settings/app_config/disretained</t>
+  </si>
+  <si>
+    <t>记录app端发送的非保留设置数据</t>
+  </si>
+  <si>
+    <t>"turn_angle"</t>
+  </si>
+  <si>
+    <t>舵机转动角度
+-90°~+90°</t>
+  </si>
+  <si>
+    <t>"save_angle"</t>
+  </si>
+  <si>
+    <t>保存当前舵机角度</t>
+  </si>
+  <si>
+    <t>/settings/device_config/retained</t>
+  </si>
+  <si>
+    <t>记录设备端发送的保留设置数据</t>
+  </si>
+  <si>
+    <t>/settings/device_config/disretained</t>
+  </si>
+  <si>
+    <t>记录设备端发送的非保留设置数据</t>
+  </si>
+  <si>
+    <t>/state/device_config/retained</t>
+  </si>
+  <si>
+    <t>记录设备端发送的保留
+状态数据</t>
+  </si>
+  <si>
+    <t>"power"</t>
   </si>
   <si>
     <t>电源状态
@@ -126,23 +131,20 @@
 4:异常</t>
   </si>
   <si>
-    <t>/config/angle</t>
-  </si>
-  <si>
-    <t>舵机转动角度
--90°~+90°</t>
-  </si>
-  <si>
-    <t>/config/save_angle</t>
-  </si>
-  <si>
-    <t>保存当前舵机角度</t>
-  </si>
-  <si>
-    <t>/config/password</t>
-  </si>
-  <si>
-    <t>开机密码</t>
+    <t>"connect_state"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">连接状
+0:未连接
+1:已连接
+</t>
+  </si>
+  <si>
+    <t>/state/device_config/disretained</t>
+  </si>
+  <si>
+    <t>记录设备端发送的非保留
+状态数据</t>
   </si>
 </sst>
 </file>
@@ -158,6 +160,13 @@
   <fonts count="21">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -307,15 +316,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +332,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,12 +547,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,73 +725,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,82 +785,139 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1318,186 +1444,683 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="42.125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="93" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" ht="27" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D3" t="b">
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" ht="81" spans="1:6">
+      <c r="A50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="2:6">
-      <c r="B5" t="s">
+      <c r="D50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="F50" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" ht="54" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="18">
         <v>1</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="2:6">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="81" spans="2:6">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="2:6">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="2:6">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="C4:C19"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="C50:C57"/>
+    <mergeCell ref="C58:C68"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="16425" windowHeight="27495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -62,7 +65,7 @@
     <t>"number"</t>
   </si>
   <si>
-    <t>唤醒间隔，单位:分钟
+    <t>唤醒间隔，单位:分钟(最大时间:65535)
 0:始终唤醒
 &gt;0:唤醒间隔</t>
   </si>
@@ -79,7 +82,32 @@
     <t>"pc_password"</t>
   </si>
   <si>
-    <t>电脑开机密码</t>
+    <t>"string"</t>
+  </si>
+  <si>
+    <t>电脑开机密码(最大长度:100字符)</t>
+  </si>
+  <si>
+    <t>"pc_password_ctrl"</t>
+  </si>
+  <si>
+    <t>开机密码控制
+0:开机后不输入密码
+1:开机后输入密码</t>
+  </si>
+  <si>
+    <t>"pc_password_wait"</t>
+  </si>
+  <si>
+    <t>输入密码前等待时间，单位:秒</t>
+  </si>
+  <si>
+    <t>"led_ctrl"</t>
+  </si>
+  <si>
+    <t>设备led灯控制
+0:不开启led
+1:开启led</t>
   </si>
   <si>
     <t>/settings/app_config/disretained</t>
@@ -98,7 +126,7 @@
     <t>"save_angle"</t>
   </si>
   <si>
-    <t>保存当前舵机角度</t>
+    <t>1:保存当前舵机角度</t>
   </si>
   <si>
     <t>/settings/device_config/retained</t>
@@ -131,13 +159,52 @@
 4:异常</t>
   </si>
   <si>
-    <t>"connect_state"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连接状
-0:未连接
-1:已连接
-</t>
+    <t>"last_power_on_time"</t>
+  </si>
+  <si>
+    <t>上次开机时间</t>
+  </si>
+  <si>
+    <t>"last_power_off_time"</t>
+  </si>
+  <si>
+    <t>上次关机时间</t>
+  </si>
+  <si>
+    <t>"next_power_on_time"</t>
+  </si>
+  <si>
+    <t>下次开机时间</t>
+  </si>
+  <si>
+    <t>"next_power_off_time"</t>
+  </si>
+  <si>
+    <t>下次关机时间</t>
+  </si>
+  <si>
+    <t>"last_wake_up_time"</t>
+  </si>
+  <si>
+    <t>上次唤醒时间</t>
+  </si>
+  <si>
+    <t>"last_sleep_time"</t>
+  </si>
+  <si>
+    <t>上次睡眠时间</t>
+  </si>
+  <si>
+    <t>"next_wake_up_time"</t>
+  </si>
+  <si>
+    <t>下次唤醒时间</t>
+  </si>
+  <si>
+    <t>"next_sleep_time"</t>
+  </si>
+  <si>
+    <t>下次睡眠时间</t>
   </si>
   <si>
     <t>/state/device_config/disretained</t>
@@ -145,6 +212,42 @@
   <si>
     <t>记录设备端发送的非保留
 状态数据</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>记录保留设备运行状态信息</t>
+  </si>
+  <si>
+    <t>"power_on_count"</t>
+  </si>
+  <si>
+    <t>电脑开机次数</t>
+  </si>
+  <si>
+    <t>"power_off_count"</t>
+  </si>
+  <si>
+    <t>电脑关机次数</t>
+  </si>
+  <si>
+    <t>"wakeup_count"</t>
+  </si>
+  <si>
+    <t>设备唤醒次数</t>
+  </si>
+  <si>
+    <t>/statistics/device_config/disretained</t>
+  </si>
+  <si>
+    <t>记录非保留设备运行状态信息</t>
+  </si>
+  <si>
+    <t>"voltage"</t>
+  </si>
+  <si>
+    <t>当前电压,单位:mV</t>
   </si>
 </sst>
 </file>
@@ -547,12 +650,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,19 +717,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,7 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,34 +855,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,59 +977,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,682 +1568,1125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="39.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="93" customHeight="1" spans="1:7">
+    <row r="1" ht="93" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="3" ht="54" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="54" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="4">
+      <c r="G3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="2:7">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="2:7">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="2:7">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:7">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="2:7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="27" spans="1:7">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" ht="27" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="E20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" ht="81" spans="1:7">
+      <c r="A50" s="1">
+        <v>5</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="16"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="G51" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="16"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="16"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="16"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="16"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="16"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="16"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="16"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="16"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="16"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="16"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="16"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="16"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="16"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="21"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>6</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="20"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>7</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="E77" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="20"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="20"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="20"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>8</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" s="12">
         <v>1</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" ht="81" spans="1:6">
-      <c r="A50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" ht="54" spans="1:6">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="18">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="4"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
+      <c r="E92" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="20"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="20"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="20"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="20"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="20"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="20"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="20"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="20"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="20"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="A32:A39"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="A92:A106"/>
     <mergeCell ref="B3:B19"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="B40:B49"/>
-    <mergeCell ref="B50:B57"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="C4:C19"/>
+    <mergeCell ref="B50:B65"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="B77:B91"/>
+    <mergeCell ref="B92:B106"/>
+    <mergeCell ref="C3:C19"/>
     <mergeCell ref="C20:C31"/>
     <mergeCell ref="C32:C39"/>
     <mergeCell ref="C40:C49"/>
-    <mergeCell ref="C50:C57"/>
-    <mergeCell ref="C58:C68"/>
+    <mergeCell ref="C50:C65"/>
+    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="C77:C91"/>
+    <mergeCell ref="C92:C106"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D39"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="D50:D65"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="D77:D91"/>
+    <mergeCell ref="D92:D106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="27495"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
   </si>
@@ -108,6 +108,14 @@
     <t>设备led灯控制
 0:不开启led
 1:开启led</t>
+  </si>
+  <si>
+    <t>"tools_token"</t>
+  </si>
+  <si>
+    <t>手机令牌功能
+0:关闭手机令牌
+1:开启手机令牌</t>
   </si>
   <si>
     <t>/settings/app_config/disretained</t>
@@ -967,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1571,7 +1573,7 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1715,13 +1717,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" ht="40.5" spans="2:7">
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="12"/>
@@ -1729,7 +1737,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="12"/>
@@ -1737,7 +1745,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="12"/>
@@ -1745,7 +1753,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="12"/>
@@ -1753,7 +1761,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="12"/>
@@ -1761,7 +1769,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="12"/>
@@ -1769,7 +1777,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="12"/>
@@ -1777,7 +1785,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="12"/>
@@ -1785,7 +1793,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="12"/>
@@ -1793,37 +1801,37 @@
       <c r="D18" s="16"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="21"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" ht="27" spans="1:7">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:7">
@@ -1831,13 +1839,13 @@
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>29</v>
+      <c r="G21" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -1846,7 +1854,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="12"/>
@@ -1854,7 +1862,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="12"/>
@@ -1862,7 +1870,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="12"/>
@@ -1870,7 +1878,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="12"/>
@@ -1878,7 +1886,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="12"/>
@@ -1886,7 +1894,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="12"/>
@@ -1894,7 +1902,7 @@
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="12"/>
@@ -1902,7 +1910,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
-      <c r="G29" s="20"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="12"/>
@@ -1910,7 +1918,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="12"/>
@@ -1918,24 +1926,24 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="12"/>
@@ -1943,7 +1951,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="20"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="12"/>
@@ -1951,7 +1959,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="12"/>
@@ -1959,7 +1967,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="12"/>
@@ -1967,7 +1975,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="12"/>
@@ -1975,7 +1983,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="12"/>
@@ -1983,7 +1991,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="12"/>
@@ -1991,24 +1999,24 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>4</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="12"/>
@@ -2016,7 +2024,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="12"/>
@@ -2024,7 +2032,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="12"/>
@@ -2032,7 +2040,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="12"/>
@@ -2040,7 +2048,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="12"/>
@@ -2048,7 +2056,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="12"/>
@@ -2056,7 +2064,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="12"/>
@@ -2064,7 +2072,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="12"/>
@@ -2072,7 +2080,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="20"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="12"/>
@@ -2080,215 +2088,215 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
-      <c r="G49" s="20"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" ht="81" spans="1:7">
       <c r="A50" s="1">
         <v>5</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="16"/>
-      <c r="C51" s="23"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="16"/>
       <c r="E51" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" s="16"/>
-      <c r="C52" s="23"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="16"/>
       <c r="E52" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="20" t="s">
-        <v>41</v>
+      <c r="G52" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="16"/>
-      <c r="C53" s="23"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="16"/>
       <c r="E53" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>43</v>
+      <c r="G53" s="18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" s="16"/>
-      <c r="C54" s="23"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="16"/>
       <c r="E54" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>45</v>
+      <c r="G54" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="16"/>
-      <c r="C55" s="23"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="16"/>
       <c r="E55" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="20" t="s">
-        <v>47</v>
+      <c r="G55" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="16"/>
-      <c r="C56" s="23"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="16"/>
       <c r="E56" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="20" t="s">
-        <v>49</v>
+      <c r="G56" s="18" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" s="16"/>
-      <c r="C57" s="23"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="16"/>
       <c r="E57" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="20" t="s">
-        <v>51</v>
+      <c r="G57" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" s="16"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="16"/>
       <c r="E58" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="20" t="s">
-        <v>53</v>
+      <c r="G58" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="16"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="16"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="20"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="16"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="16"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="16"/>
-      <c r="C61" s="23"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="16"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="16"/>
-      <c r="C62" s="23"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="16"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" s="16"/>
-      <c r="C63" s="23"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="16"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="20"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="16"/>
-      <c r="C64" s="23"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="16"/>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="21"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
-      <c r="G65" s="20"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>6</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="12"/>
@@ -2296,7 +2304,7 @@
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="12"/>
@@ -2304,7 +2312,7 @@
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
-      <c r="G68" s="20"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="12"/>
@@ -2312,7 +2320,7 @@
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
-      <c r="G69" s="20"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="12"/>
@@ -2320,7 +2328,7 @@
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" s="12"/>
@@ -2328,7 +2336,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="12"/>
@@ -2336,7 +2344,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="18"/>
     </row>
     <row r="73" spans="2:7">
       <c r="B73" s="12"/>
@@ -2344,7 +2352,7 @@
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="18"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="12"/>
@@ -2352,7 +2360,7 @@
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="18"/>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="12"/>
@@ -2360,7 +2368,7 @@
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="18"/>
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="12"/>
@@ -2368,29 +2376,29 @@
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="18"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>7</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="20" t="s">
-        <v>59</v>
+      <c r="G77" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -2398,13 +2406,13 @@
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="20" t="s">
-        <v>61</v>
+      <c r="G78" s="18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -2412,13 +2420,13 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="20" t="s">
-        <v>63</v>
+      <c r="G79" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -2427,7 +2435,7 @@
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="12"/>
@@ -2435,7 +2443,7 @@
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="18"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="12"/>
@@ -2443,7 +2451,7 @@
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="18"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="12"/>
@@ -2451,7 +2459,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="18"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="12"/>
@@ -2459,7 +2467,7 @@
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="20"/>
+      <c r="G84" s="18"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="12"/>
@@ -2467,7 +2475,7 @@
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="18"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="12"/>
@@ -2475,7 +2483,7 @@
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="20"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="12"/>
@@ -2483,7 +2491,7 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="18"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="12"/>
@@ -2491,7 +2499,7 @@
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="20"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="12"/>
@@ -2499,7 +2507,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="20"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="12"/>
@@ -2507,7 +2515,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="20"/>
+      <c r="G90" s="18"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="12"/>
@@ -2515,29 +2523,29 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="20"/>
+      <c r="G91" s="18"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>8</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D92" s="12">
         <v>1</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="20" t="s">
-        <v>67</v>
+      <c r="G92" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -2546,7 +2554,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="12"/>
@@ -2554,7 +2562,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="20"/>
+      <c r="G94" s="18"/>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="12"/>
@@ -2562,7 +2570,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="18"/>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="12"/>
@@ -2570,7 +2578,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="18"/>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="12"/>
@@ -2578,7 +2586,7 @@
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="18"/>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="12"/>
@@ -2586,7 +2594,7 @@
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="12"/>
@@ -2594,7 +2602,7 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="18"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="12"/>
@@ -2602,7 +2610,7 @@
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="18"/>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="12"/>
@@ -2610,7 +2618,7 @@
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="18"/>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="12"/>
@@ -2618,7 +2626,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="18"/>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="12"/>
@@ -2626,7 +2634,7 @@
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="12"/>
@@ -2634,7 +2642,7 @@
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="20"/>
+      <c r="G104" s="18"/>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="12"/>
@@ -2642,7 +2650,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="18"/>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="12"/>
@@ -2650,7 +2658,7 @@
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>当前电压,单位:mV</t>
+  </si>
+  <si>
+    <t>/notification</t>
+  </si>
+  <si>
+    <t>文本消息通知</t>
+  </si>
+  <si>
+    <t>"notification"</t>
+  </si>
+  <si>
+    <t>文本通知</t>
   </si>
 </sst>
 </file>
@@ -1570,10 +1582,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2659,6 +2671,26 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="33">

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -134,7 +134,9 @@
     <t>"save_angle"</t>
   </si>
   <si>
-    <t>1:保存当前舵机角度</t>
+    <t>1:保存当前舵机角度作为空闲时角度
+2:保存当前舵机角度作为正方向按下时角度
+3:保存当前舵机角度作为反方向按下时角度</t>
   </si>
   <si>
     <t>/settings/device_config/retained</t>
@@ -1584,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1846,7 +1848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" ht="81" spans="2:7">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -1856,7 +1858,7 @@
       <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="15" t="s">
         <v>31</v>
       </c>
     </row>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="18345" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1586,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView windowWidth="16425" windowHeight="27495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
   </si>
@@ -193,7 +193,7 @@
     <t>下次关机时间</t>
   </si>
   <si>
-    <t>"last_wake_up_time"</t>
+    <t>"last_wakeup_time"</t>
   </si>
   <si>
     <t>上次唤醒时间</t>
@@ -205,7 +205,7 @@
     <t>上次睡眠时间</t>
   </si>
   <si>
-    <t>"next_wake_up_time"</t>
+    <t>"next_wakeup_time"</t>
   </si>
   <si>
     <t>下次唤醒时间</t>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>下次睡眠时间</t>
+  </si>
+  <si>
+    <t>"on_line_state"</t>
+  </si>
+  <si>
+    <t>在线状态
+0:设备不在线
+1:设备在线</t>
   </si>
   <si>
     <t>/state/device_config/disretained</t>
@@ -1586,8 +1594,8 @@
   <sheetPr/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B65"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2015,7 +2023,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -2028,9 +2036,6 @@
       <c r="D40" s="12">
         <v>1</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="12"/>
@@ -2239,13 +2244,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" ht="40.5" spans="2:7">
       <c r="B59" s="16"/>
       <c r="C59" s="21"/>
       <c r="D59" s="16"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="18"/>
+      <c r="E59" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="16"/>
@@ -2295,22 +2306,19 @@
       <c r="F65" s="12"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>6</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="12"/>
@@ -2397,22 +2405,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -2420,13 +2428,13 @@
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -2434,13 +2442,13 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -2544,22 +2552,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D92" s="12">
         <v>1</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -2676,22 +2684,22 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mqtt通信topic.xlsx
+++ b/doc/mqtt通信topic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="27495"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>由于免费服务器允许的最大topic个数为10个，为了利用有限的资源，数据采用JSON格式保存和传递，即一个topic保存一组JSON数据。</t>
   </si>
@@ -127,16 +127,25 @@
     <t>"turn_angle"</t>
   </si>
   <si>
-    <t>舵机转动角度
+    <t>舵机转动角度(只有save_angle为1时转动有效)
 -90°~+90°</t>
   </si>
   <si>
     <t>"save_angle"</t>
   </si>
   <si>
-    <t>1:保存当前舵机角度作为空闲时角度
-2:保存当前舵机角度作为正方向按下时角度
-3:保存当前舵机角度作为反方向按下时角度</t>
+    <t>1:舵机转动有效控制
+2:保存当前舵机角度作为空闲时角度
+3:保存当前舵机角度作为正方向按下时角度
+4:保存当前舵机角度作为反方向按下时角度</t>
+  </si>
+  <si>
+    <t>"token_ctrl"</t>
+  </si>
+  <si>
+    <t>手机令牌开关屏幕
+1:开启屏幕
+2:关闭屏幕</t>
   </si>
   <si>
     <t>/settings/device_config/retained</t>
@@ -1594,8 +1603,8 @@
   <sheetPr/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1606,7 +1615,7 @@
     <col min="4" max="4" width="4.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1833,7 +1842,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" ht="27" spans="1:7">
+    <row r="20" ht="54" spans="1:7">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" ht="81" spans="2:7">
+    <row r="21" ht="94.5" spans="2:7">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -1870,13 +1879,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" ht="40.5" spans="2:7">
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="12"/>
@@ -1955,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -2028,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -2114,22 +2129,22 @@
         <v>5</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D50" s="14">
         <v>1</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -2137,13 +2152,13 @@
       <c r="C51" s="21"/>
       <c r="D51" s="16"/>
       <c r="E51" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -2151,13 +2166,13 @@
       <c r="C52" s="21"/>
       <c r="D52" s="16"/>
       <c r="E52" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:7">
@@ -2165,13 +2180,13 @@
       <c r="C53" s="21"/>
       <c r="D53" s="16"/>
       <c r="E53" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:7">
@@ -2179,13 +2194,13 @@
       <c r="C54" s="21"/>
       <c r="D54" s="16"/>
       <c r="E54" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:7">
@@ -2193,13 +2208,13 @@
       <c r="C55" s="21"/>
       <c r="D55" s="16"/>
       <c r="E55" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="2:7">
@@ -2207,13 +2222,13 @@
       <c r="C56" s="21"/>
       <c r="D56" s="16"/>
       <c r="E56" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -2221,13 +2236,13 @@
       <c r="C57" s="21"/>
       <c r="D57" s="16"/>
       <c r="E57" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -2235,13 +2250,13 @@
       <c r="C58" s="21"/>
       <c r="D58" s="16"/>
       <c r="E58" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="40.5" spans="2:7">
@@ -2249,13 +2264,13 @@
       <c r="C59" s="21"/>
       <c r="D59" s="16"/>
       <c r="E59" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -2311,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
@@ -2405,22 +2420,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -2428,13 +2443,13 @@
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="2:7">
@@ -2442,13 +2457,13 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:7">
@@ -2552,22 +2567,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D92" s="12">
         <v>1</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -2684,22 +2699,22 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
